--- a/7-Gráficos/28. Gráfico de Barra com Variação de Cor - Material(1).xlsx
+++ b/7-Gráficos/28. Gráfico de Barra com Variação de Cor - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348BCD3C-3EB1-4AAF-9E7B-66DE4F31AB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FFEF57-8F8E-4E19-B4E3-A43917FF5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A188719-EE9F-4F65-AA10-778C9ECD37D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A188719-EE9F-4F65-AA10-778C9ECD37D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Barra_Gabarito" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Barra_Gabarito!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Barra_Zero!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Barra_Gabarito!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Barra_Gabarito!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Barra_Gabarito!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Barra_Gabarito!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Barra_Gabarito!$D$2:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,12 +34,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Cidade</t>
   </si>
@@ -105,6 +103,9 @@
   <si>
     <t>Não</t>
   </si>
+  <si>
+    <t>&lt;- Colunas Auxiliares</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -138,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,12 +172,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -185,8 +192,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -331,28 +344,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1516113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1645727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1933105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2182763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2512070</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2669342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2872347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3015268</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6718903</c:v>
@@ -471,28 +484,28 @@
                   <c:v>1492745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1516113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1645727</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1933105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2182763</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2512070</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2669342</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2872347</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3015268</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -773,7 +786,638 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15385021785336431"/>
+          <c:y val="1.7675977945113479E-3"/>
+          <c:w val="0.78118557325606297"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Barra_Zero!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4BFF9C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Barra_Zero!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>São Luís</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campinas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guarulhos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Porto Alegre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belém</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Goiânia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Recife</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Curitiba</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manaus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Belo Horizonte</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Salvador</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Brasília</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>São Paulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Barra_Zero!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;\-#,##0\ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3015268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6718903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12252023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF34-4CCB-B658-7CD726E98B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Barra_Zero!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Barra_Zero!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>São Luís</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campinas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guarulhos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Porto Alegre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belém</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Goiânia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Recife</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Curitiba</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manaus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Belo Horizonte</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Salvador</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Brasília</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>São Paulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Barra_Zero!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;\-#,##0\ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1101884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1204073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1379182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1492745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1516113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1645727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1933105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2182763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2512070</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2669342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2872347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF34-4CCB-B658-7CD726E98B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Barra_Zero!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>População</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CF34-4CCB-B658-7CD726E98B44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Barra_Zero!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;\-#,##0\ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1101884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1204073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1379182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1492745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1516113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1645727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1933105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2182763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2512070</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2669342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2872347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3015268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6718903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12252023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF34-4CCB-B658-7CD726E98B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1765449776"/>
+        <c:axId val="1765438736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765449776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765438736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765438736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_ ;\-#,##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1765449776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -815,6 +1459,511 @@
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1359,10 +2508,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174623</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3B627E-5224-BD92-D557-12AFAFE2F982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1400,7 +2590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1506,7 +2696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1648,7 +2838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1658,18 +2848,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A48605-9096-4DC3-A333-5AA67D1A72C5}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +2875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +2883,7 @@
         <v>1101884</v>
       </c>
       <c r="C2" s="2">
-        <f>IF(B2&gt;$B$18,B2,0)</f>
+        <f t="shared" ref="C2:C16" si="0">IF(B2&gt;$B$18,B2,0)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
@@ -1700,7 +2892,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1708,16 +2900,16 @@
         <v>1204073</v>
       </c>
       <c r="C3" s="2">
-        <f>IF(B3&gt;$B$18,B3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D16" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D16" si="1">B3-C3</f>
         <v>1204073</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1725,16 +2917,16 @@
         <v>1379182</v>
       </c>
       <c r="C4" s="2">
-        <f>IF(B4&gt;$B$18,B4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1379182</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1742,16 +2934,16 @@
         <v>1483771</v>
       </c>
       <c r="C5" s="2">
-        <f>IF(B5&gt;$B$18,B5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1483771</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1759,16 +2951,16 @@
         <v>1492745</v>
       </c>
       <c r="C6" s="2">
-        <f>IF(B6&gt;$B$18,B6,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1492745</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1776,16 +2968,16 @@
         <v>1516113</v>
       </c>
       <c r="C7" s="2">
-        <f>IF(B7&gt;$B$18,B7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>1516113</v>
       </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1793,16 +2985,16 @@
         <v>1645727</v>
       </c>
       <c r="C8" s="2">
-        <f>IF(B8&gt;$B$18,B8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>1645727</v>
       </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1810,16 +3002,16 @@
         <v>1933105</v>
       </c>
       <c r="C9" s="2">
-        <f>IF(B9&gt;$B$18,B9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>1933105</v>
       </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1827,16 +3019,16 @@
         <v>2182763</v>
       </c>
       <c r="C10" s="2">
-        <f>IF(B10&gt;$B$18,B10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>2182763</v>
       </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1844,16 +3036,16 @@
         <v>2512070</v>
       </c>
       <c r="C11" s="2">
-        <f>IF(B11&gt;$B$18,B11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>2512070</v>
       </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1861,16 +3053,16 @@
         <v>2669342</v>
       </c>
       <c r="C12" s="2">
-        <f>IF(B12&gt;$B$18,B12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>2669342</v>
       </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1878,16 +3070,16 @@
         <v>2872347</v>
       </c>
       <c r="C13" s="2">
-        <f>IF(B13&gt;$B$18,B13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>2872347</v>
       </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1895,16 +3087,16 @@
         <v>3015268</v>
       </c>
       <c r="C14" s="2">
-        <f>IF(B14&gt;$B$18,B14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>3015268</v>
       </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1912,16 +3104,16 @@
         <v>6718903</v>
       </c>
       <c r="C15" s="2">
-        <f>IF(B15&gt;$B$18,B15,0)</f>
+        <f t="shared" si="0"/>
         <v>6718903</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1929,34 +3121,34 @@
         <v>12252023</v>
       </c>
       <c r="C16" s="2">
-        <f>IF(B16&gt;$B$18,B16,0)</f>
+        <f t="shared" si="0"/>
         <v>12252023</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1977,157 +3169,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4313784-C7E9-4852-9784-0B97B9ED4E5F}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>1101884</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <f>IF(B2&gt;=$B$18, B2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2-C2</f>
+        <v>1101884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>1204073</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C16" si="0">IF(B3&gt;=$B$18, B3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D16" si="1">B3-C3</f>
+        <v>1204073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1379182</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>1379182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>1483771</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1483771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1492745</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>1492745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1516113</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>1516113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1645727</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>1645727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>1933105</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>1933105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>2182763</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>2182763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>2512070</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>2512070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>2669342</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>2669342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>2872347</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>2872347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>3015268</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>3015268</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>6718903</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>6718903</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>12252023</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12252023</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
     </row>
@@ -2139,5 +3465,6 @@
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>